--- a/medicine/Enfance/Anne_Brouillard/Anne_Brouillard.xlsx
+++ b/medicine/Enfance/Anne_Brouillard/Anne_Brouillard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anne Brouillard, née le 12 juillet 1967 à Louvain, est une auteure de livres de jeunesse et illustratrice belge.
 </t>
@@ -511,16 +523,18 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Née en 1967 à Louvain, d'un père belge et d'une mère suédoise[1], elle dessine depuis l'enfance[2]. Elle suit des études à l'école supérieure des arts Saint-Luc à Bruxelles. 
-Son premier album, Trois chats, est publié en 1990. Cet album sans texte suit trois chats sur une branche, qui cherchent à attraper des poissons rouges[3]. Il est remarqué dès sa parution et publié en Allemagne et aux États-Unis[1].
-En 1993, elle obtient une « Mention » à la Foire du livre de jeunesse de Bologne[4] et est récompensée par la Pomme d'Or de Bratislava[5] de la Biennale d'illustration de Bratislava, pour Le Sourire du loup.
-En 2013, son Voyage d'hiver est sélectionné par le prix Pépites du Salon du livre de Jeunesse de Montreuil[6].
-En 2016, elle publie La grande forêt[7], nommé pour le Prix Sorcières 2017[8]. 
-Elle est reconnue par la critique par la singularité de son univers et ses livres inclassables (entre l'album, la BD ou le conte). Certains thèmes sont récurrents dans son œuvre : le voyage, la nature et les êtres vivants[2],[7],[9],[10]. 
-En 2024[11], elle est sélectionnée pour la cinquième année d'affilée (depuis 2020) pour le prestigieux prix international suédois, le Prix commémoratif Astrid-Lindgren[12],[13].
-Elle est également l'artiste sélectionnée pour représenter son pays, la Belgique, pour le Prix Hans-Christian-Andersen, dans la catégorie Illustration, en 2020[14], et en 2024[15], prix international danois.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Née en 1967 à Louvain, d'un père belge et d'une mère suédoise, elle dessine depuis l'enfance. Elle suit des études à l'école supérieure des arts Saint-Luc à Bruxelles. 
+Son premier album, Trois chats, est publié en 1990. Cet album sans texte suit trois chats sur une branche, qui cherchent à attraper des poissons rouges. Il est remarqué dès sa parution et publié en Allemagne et aux États-Unis.
+En 1993, elle obtient une « Mention » à la Foire du livre de jeunesse de Bologne et est récompensée par la Pomme d'Or de Bratislava de la Biennale d'illustration de Bratislava, pour Le Sourire du loup.
+En 2013, son Voyage d'hiver est sélectionné par le prix Pépites du Salon du livre de Jeunesse de Montreuil.
+En 2016, elle publie La grande forêt, nommé pour le Prix Sorcières 2017. 
+Elle est reconnue par la critique par la singularité de son univers et ses livres inclassables (entre l'album, la BD ou le conte). Certains thèmes sont récurrents dans son œuvre : le voyage, la nature et les êtres vivants. 
+En 2024, elle est sélectionnée pour la cinquième année d'affilée (depuis 2020) pour le prestigieux prix international suédois, le Prix commémoratif Astrid-Lindgren,.
+Elle est également l'artiste sélectionnée pour représenter son pays, la Belgique, pour le Prix Hans-Christian-Andersen, dans la catégorie Illustration, en 2020, et en 2024, prix international danois.
 </t>
         </is>
       </c>
@@ -549,16 +563,18 @@
           <t>Quelques distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1993 :  : Pomme d'Or de Bratislava[5], lors de la Biennale d'illustration de Bratislava, pour Le Sourire du loup
-1993 :  "Mention" Premio Grafico Fiera di Bologna per l'Infanzia de  la Foire du livre de jeunesse de Bologne[4] (Italie) pour Le sourire du loup
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1993 :  : Pomme d'Or de Bratislava, lors de la Biennale d'illustration de Bratislava, pour Le Sourire du loup
+1993 :  "Mention" Premio Grafico Fiera di Bologna per l'Infanzia de  la Foire du livre de jeunesse de Bologne (Italie) pour Le sourire du loup
 1994 : Prix Maeterlinck pour Le sourire du loup
-1994 : (international) « Honour List »[16] de l' IBBY pour Le sourire du loup
-2000 :  "Mention" Fiction Young Adults de  la Foire du livre de jeunesse de Bologne[17] (Italie) pour Le grand murmure
-Grand Prix Triennal de Littérature de Jeunesse 2015-2018 de la Fédération Wallonie-Bruxelles[18]
-2020 et 2024 :  Sélection belge du Prix Hans-Christian-Andersen, dans la catégorie Illustration[14],[15]
-2020 à 2024 :  Sélection pour le Prix commémoratif Astrid-Lindgren[12],[13],[11], durant cinq années d'affilée.</t>
+1994 : (international) « Honour List » de l' IBBY pour Le sourire du loup
+2000 :  "Mention" Fiction Young Adults de  la Foire du livre de jeunesse de Bologne (Italie) pour Le grand murmure
+Grand Prix Triennal de Littérature de Jeunesse 2015-2018 de la Fédération Wallonie-Bruxelles
+2020 et 2024 :  Sélection belge du Prix Hans-Christian-Andersen, dans la catégorie Illustration,
+2020 à 2024 :  Sélection pour le Prix commémoratif Astrid-Lindgren durant cinq années d'affilée.</t>
         </is>
       </c>
     </row>
@@ -588,12 +604,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Auteure et illustratrice
-Trois chats, Paris, Éditions du Sorbier, 1990, 26 p.  (ISBN 2-502-00120-X) ; nouvelle édition, Seuil Jeunesse, 2015
+          <t>Auteure et illustratrice</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Trois chats, Paris, Éditions du Sorbier, 1990, 26 p.  (ISBN 2-502-00120-X) ; nouvelle édition, Seuil Jeunesse, 2015
 Le Sourire du loup, Paris, Éditions Épigones, coll. « La Langue au chat », 1992, 25 p.  (ISBN 2-7366-3605-8) ; nouvelle édition, Âne bâté, coll. « Il était deux fois », 2007  (ISBN 9782917326008)
-- Pomme d'Or de Bratislava 1993[5], lors de la Biennale d'illustration de Bratislava
-- prix Maeterlinck 1994[19]
-- "Mention" Premio Grafico Fiera di Bologna per l'Infanzia de  la Foire du livre de jeunesse de Bologne 1993[4] (Italie)
+- Pomme d'Or de Bratislava 1993, lors de la Biennale d'illustration de Bratislava
+- prix Maeterlinck 1994
+- "Mention" Premio Grafico Fiera di Bologna per l'Infanzia de  la Foire du livre de jeunesse de Bologne 1993 (Italie)
 Petites histoires, Syros, 1993  (ISBN 2-86738-962-3)
 Reviens sapin, Paris, Éditions du Sorbier, 1994, 24 p.  (ISBN 2-7320-3391-X)
 Cartes postales, Paris, Éditions du Sorbier, 1994, 26 p.  (ISBN 2-7320-3392-8)
@@ -609,7 +630,7 @@
 Petites histoires simples, Paris, Éditions Syros Jeunesse, 1999, 34 p.  (ISBN 2-84146-725-2)
 Petites histoires étranges, Paris, Éditions Syros Jeunesse, 1999, 36 p.  (ISBN 9782841467266)
 Le Grand Murmure, Toulouse, Éditions Milan, coll. « Jeunesse », 1999, 40 p.  (ISBN 2-84113-808-9)
--  "Mention" Fiction Young Adults de  la Foire du livre de jeunesse de Bologne 2000[17] (Italie)
+-  "Mention" Fiction Young Adults de  la Foire du livre de jeunesse de Bologne 2000 (Italie)
 Le Temps d'une lessive, Paris, Éditions Syros, coll. « Les petits voisins », 2000, 25 p.  (ISBN 2-84146-854-2)
 Sept minutes et demie, Paris, Éditions Thierry Magnier, coll. « Tête de lard », 2002, 22 p.  (ISBN 2-84420-148-2)
 La Grande Vague, Nîmes, Éditions Grandir, 2003, 34 p.  (ISBN 2-84166-200-4)
@@ -620,19 +641,53 @@
 La Vieille dame et les souris, Paris, Éditions du Seuil Jeunesse, 2007, 28 p.  (ISBN 978-2-02-092870-0)
 Le Rêve du poisson, Paris, Éditions Sarbacane, 2009, 32 p.  (ISBN 978-2-84865-301-3)
 De l’autre côté du lac, Paris, Éditions du Sorbier, 2011, 32 p.  (ISBN 978-2-7320-3995-4)
-Berceuse du merle, Paris, Éditions du Seuil Jeunesse, 2011, 25 p.  (ISBN 978-2-02-104447-8)[20]
+Berceuse du merle, Paris, Éditions du Seuil Jeunesse, 2011, 25 p.  (ISBN 978-2-02-104447-8)
 Lieux réels, lieux imaginaires, Paris, Éditions l’Art à la page, coll. « Les carnets », 2011, 31 p.  (ISBN 978-2-910915-22-3)
-Petit chien, Paris, Éditions du Seuil Jeunesse, 2012, 40 p.  (ISBN 978-2-02-106464-3)[20]
-Voyage d’hiver, leporello, Noville-sur-Mehaigne, Belgique, L’Esperluète Éditions, 2013, 32 p.  (ISBN 978-2-35984-042-1) [21],[9]
+Petit chien, Paris, Éditions du Seuil Jeunesse, 2012, 40 p.  (ISBN 978-2-02-106464-3)
+Voyage d’hiver, leporello, Noville-sur-Mehaigne, Belgique, L’Esperluète Éditions, 2013, 32 p.  (ISBN 978-2-35984-042-1) ,
 Petit somme, Seuil jeunesse, 2014
 Les aventuriers du soir, les Éditions des Éléphants, 2015
 Le pays des Chintiens, 1 : La grande forêt, L'École des loisirs, 2016
 Le pays des Chintiens, 2 : Les îles, L'École des loisirs, 2019
 Pikkeli Mimou, L'École des loisirs, coll. « Pastel », 2020
 De l'autre côté du lac, Sorbier, 2021
-Nino, Éditions des Éléphants, 2021
-Illustratrice
-Demain les fleurs, texte de Thierry Lenain, Paris, Nathan, coll. « Albums Nathan », 2000, 24 p.  (ISBN 2-09-210678-3)
+Nino, Éditions des Éléphants, 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Anne_Brouillard</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne_Brouillard</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Illustratrice</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Demain les fleurs, texte de Thierry Lenain, Paris, Nathan, coll. « Albums Nathan », 2000, 24 p.  (ISBN 2-09-210678-3)
 Paroles de la mer, recueillies et présentées par Jean-Pierre Kerloc'h, préf. de Jean-François Deniau, Albin Michel Jeunesse, coll. « Paroles », 2000  (ISBN 9782226112187)
 La Déménagerie, texte de Muriel Carminati, Patrick Spens, Draguignan, Éditions lo Païs, coll. « D’enfance », 2002, 34 p.  (ISBN 2-910998-55-X)
 Entre fleuve et canal, texte de Nadine Brun-Cosme, Cergy, Éditions Points de suspension, 2002, 28 p.  (ISBN 2-912138-27-2)
